--- a/Multi-taxa_data/MollEchino/Mol_raw/Mol_div_SK.xlsx
+++ b/Multi-taxa_data/MollEchino/Mol_raw/Mol_div_SK.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\claud\Documents\COMUNE\STUDIO.LAVORO\IMBRSea\Thesis\StatAnalysis\Multi-taxa_data\MollEchino\Mol_raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E07D0C0-EA1F-4403-9123-89A381BFC161}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90452B63-711D-45B6-B359-633EFB466AF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -619,7 +619,9 @@
   </sheetPr>
   <dimension ref="A1:M1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G73" sqref="G73"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>

--- a/Multi-taxa_data/MollEchino/Mol_raw/Mol_div_SK.xlsx
+++ b/Multi-taxa_data/MollEchino/Mol_raw/Mol_div_SK.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\claud\Documents\COMUNE\STUDIO.LAVORO\IMBRSea\Thesis\StatAnalysis\Multi-taxa_data\MollEchino\Mol_raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90452B63-711D-45B6-B359-633EFB466AF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87406936-1CA7-407C-9E80-4F101E3E139E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="95">
   <si>
     <t>transect</t>
   </si>
@@ -98,15 +98,9 @@
     <t>P5130527</t>
   </si>
   <si>
-    <t>2,5</t>
-  </si>
-  <si>
     <t>P5130536</t>
   </si>
   <si>
-    <t>6,5</t>
-  </si>
-  <si>
     <t>P5130554</t>
   </si>
   <si>
@@ -125,18 +119,12 @@
     <t>P5130599</t>
   </si>
   <si>
-    <t>1,5</t>
-  </si>
-  <si>
     <t>P5130634</t>
   </si>
   <si>
     <t>P5130637</t>
   </si>
   <si>
-    <t>3,5</t>
-  </si>
-  <si>
     <t>P5130640</t>
   </si>
   <si>
@@ -318,9 +306,6 @@
   </si>
   <si>
     <t>2022-05-12 10.36.00</t>
-  </si>
-  <si>
-    <t>4,5</t>
   </si>
   <si>
     <t>2022-05-12 10.36.13</t>
@@ -620,7 +605,7 @@
   <dimension ref="A1:M1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G73" sqref="G73"/>
+      <selection activeCell="K1" sqref="K1:K1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -720,8 +705,8 @@
       <c r="H3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="K3" s="3" t="s">
-        <v>20</v>
+      <c r="K3" s="3">
+        <v>2.5</v>
       </c>
       <c r="M3" s="3"/>
     </row>
@@ -739,7 +724,7 @@
         <v>14</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>16</v>
@@ -750,8 +735,8 @@
       <c r="H4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="K4" s="3" t="s">
-        <v>22</v>
+      <c r="K4" s="3">
+        <v>6.5</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -768,7 +753,7 @@
         <v>14</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>16</v>
@@ -797,7 +782,7 @@
         <v>14</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>16</v>
@@ -826,7 +811,7 @@
         <v>14</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>16</v>
@@ -855,7 +840,7 @@
         <v>14</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>16</v>
@@ -884,7 +869,7 @@
         <v>14</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>16</v>
@@ -913,7 +898,7 @@
         <v>14</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>16</v>
@@ -924,8 +909,8 @@
       <c r="H10" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>29</v>
+      <c r="K10" s="3">
+        <v>1.5</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -942,7 +927,7 @@
         <v>14</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>16</v>
@@ -971,7 +956,7 @@
         <v>14</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>16</v>
@@ -982,8 +967,8 @@
       <c r="H12" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="K12" s="3" t="s">
-        <v>32</v>
+      <c r="K12" s="3">
+        <v>3.5</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1000,7 +985,7 @@
         <v>14</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>16</v>
@@ -1029,7 +1014,7 @@
         <v>14</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>16</v>
@@ -1058,7 +1043,7 @@
         <v>14</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>16</v>
@@ -1069,8 +1054,8 @@
       <c r="H15" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="K15" s="3" t="s">
-        <v>20</v>
+      <c r="K15" s="3">
+        <v>2.5</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1087,17 +1072,17 @@
         <v>14</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H16" s="3"/>
       <c r="J16" s="3" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="K16" s="3">
         <v>3</v>
@@ -1117,10 +1102,10 @@
         <v>14</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>17</v>
@@ -1147,10 +1132,10 @@
         <v>14</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>17</v>
@@ -1177,10 +1162,10 @@
         <v>14</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G19" s="3" t="s">
         <v>17</v>
@@ -1207,10 +1192,10 @@
         <v>14</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G20" s="3" t="s">
         <v>17</v>
@@ -1237,10 +1222,10 @@
         <v>14</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>17</v>
@@ -1267,13 +1252,13 @@
         <v>14</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H22" s="3"/>
       <c r="J22" s="3"/>
@@ -1295,13 +1280,13 @@
         <v>14</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H23" s="3"/>
       <c r="J23" s="3"/>
@@ -1323,10 +1308,10 @@
         <v>14</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G24" s="3" t="s">
         <v>17</v>
@@ -1353,10 +1338,10 @@
         <v>14</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G25" s="3" t="s">
         <v>17</v>
@@ -1383,10 +1368,10 @@
         <v>14</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G26" s="3" t="s">
         <v>17</v>
@@ -1401,7 +1386,7 @@
     </row>
     <row r="27" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>12</v>
@@ -1413,7 +1398,7 @@
         <v>14</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F27" s="3" t="s">
         <v>16</v>
@@ -1430,7 +1415,7 @@
     </row>
     <row r="28" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>12</v>
@@ -1442,7 +1427,7 @@
         <v>14</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F28" s="3" t="s">
         <v>16</v>
@@ -1459,7 +1444,7 @@
     </row>
     <row r="29" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>12</v>
@@ -1471,7 +1456,7 @@
         <v>14</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>16</v>
@@ -1488,7 +1473,7 @@
     </row>
     <row r="30" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>12</v>
@@ -1500,7 +1485,7 @@
         <v>14</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F30" s="3" t="s">
         <v>16</v>
@@ -1517,19 +1502,19 @@
     </row>
     <row r="31" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E31" s="3" t="s">
         <v>50</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>54</v>
       </c>
       <c r="F31" s="3" t="s">
         <v>16</v>
@@ -1540,13 +1525,13 @@
       <c r="H31" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="K31" s="3" t="s">
-        <v>20</v>
+      <c r="K31" s="3">
+        <v>2.5</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>12</v>
@@ -1558,7 +1543,7 @@
         <v>14</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F32" s="3" t="s">
         <v>16</v>
@@ -1575,7 +1560,7 @@
     </row>
     <row r="33" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>12</v>
@@ -1587,7 +1572,7 @@
         <v>14</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F33" s="3" t="s">
         <v>16</v>
@@ -1604,7 +1589,7 @@
     </row>
     <row r="34" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>12</v>
@@ -1616,7 +1601,7 @@
         <v>14</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F34" s="3" t="s">
         <v>16</v>
@@ -1633,7 +1618,7 @@
     </row>
     <row r="35" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>12</v>
@@ -1645,7 +1630,7 @@
         <v>14</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F35" s="3" t="s">
         <v>16</v>
@@ -1656,13 +1641,13 @@
       <c r="H35" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="K35" s="3" t="s">
-        <v>29</v>
+      <c r="K35" s="3">
+        <v>1.5</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>12</v>
@@ -1674,7 +1659,7 @@
         <v>14</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F36" s="3" t="s">
         <v>16</v>
@@ -1691,7 +1676,7 @@
     </row>
     <row r="37" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>12</v>
@@ -1703,10 +1688,10 @@
         <v>14</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G37" s="3" t="s">
         <v>17</v>
@@ -1720,7 +1705,7 @@
     </row>
     <row r="38" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>12</v>
@@ -1732,16 +1717,16 @@
         <v>14</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="J38" s="3" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="K38" s="3">
         <v>2.5</v>
@@ -1749,7 +1734,7 @@
     </row>
     <row r="39" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>12</v>
@@ -1761,13 +1746,13 @@
         <v>14</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="K39" s="3">
         <v>2</v>
@@ -1775,7 +1760,7 @@
     </row>
     <row r="40" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>12</v>
@@ -1787,10 +1772,10 @@
         <v>14</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G40" s="3" t="s">
         <v>17</v>
@@ -1804,7 +1789,7 @@
     </row>
     <row r="41" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>12</v>
@@ -1816,13 +1801,13 @@
         <v>14</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="K41" s="3">
         <v>2</v>
@@ -1830,7 +1815,7 @@
     </row>
     <row r="42" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>12</v>
@@ -1842,10 +1827,10 @@
         <v>14</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G42" s="3" t="s">
         <v>17</v>
@@ -1859,7 +1844,7 @@
     </row>
     <row r="43" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>12</v>
@@ -1871,13 +1856,13 @@
         <v>14</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="K43" s="3">
         <v>1</v>
@@ -1885,7 +1870,7 @@
     </row>
     <row r="44" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>12</v>
@@ -1897,13 +1882,13 @@
         <v>14</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="K44" s="3">
         <v>3</v>
@@ -1911,7 +1896,7 @@
     </row>
     <row r="45" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>12</v>
@@ -1923,10 +1908,10 @@
         <v>14</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G45" s="3" t="s">
         <v>17</v>
@@ -1940,7 +1925,7 @@
     </row>
     <row r="46" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>12</v>
@@ -1952,10 +1937,10 @@
         <v>14</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G46" s="3" t="s">
         <v>17</v>
@@ -1969,7 +1954,7 @@
     </row>
     <row r="47" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>12</v>
@@ -1981,10 +1966,10 @@
         <v>14</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G47" s="3" t="s">
         <v>17</v>
@@ -1998,7 +1983,7 @@
     </row>
     <row r="48" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>12</v>
@@ -2010,10 +1995,10 @@
         <v>14</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G48" s="3" t="s">
         <v>17</v>
@@ -2027,7 +2012,7 @@
     </row>
     <row r="49" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>12</v>
@@ -2039,10 +2024,10 @@
         <v>14</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G49" s="3" t="s">
         <v>17</v>
@@ -2056,7 +2041,7 @@
     </row>
     <row r="50" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>12</v>
@@ -2068,13 +2053,13 @@
         <v>14</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="K50" s="3">
         <v>5.5</v>
@@ -2082,7 +2067,7 @@
     </row>
     <row r="51" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B51" s="3" t="s">
         <v>12</v>
@@ -2094,13 +2079,13 @@
         <v>14</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H51" s="3"/>
       <c r="K51" s="3">
@@ -2109,7 +2094,7 @@
     </row>
     <row r="52" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>12</v>
@@ -2121,10 +2106,10 @@
         <v>14</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G52" s="3" t="s">
         <v>17</v>
@@ -2138,7 +2123,7 @@
     </row>
     <row r="53" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B53" s="3" t="s">
         <v>12</v>
@@ -2150,10 +2135,10 @@
         <v>14</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G53" s="3" t="s">
         <v>17</v>
@@ -2167,7 +2152,7 @@
     </row>
     <row r="54" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B54" s="3" t="s">
         <v>12</v>
@@ -2179,10 +2164,10 @@
         <v>14</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G54" s="3" t="s">
         <v>17</v>
@@ -2196,7 +2181,7 @@
     </row>
     <row r="55" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B55" s="3" t="s">
         <v>12</v>
@@ -2208,10 +2193,10 @@
         <v>14</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G55" s="3" t="s">
         <v>17</v>
@@ -2219,13 +2204,13 @@
       <c r="H55" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="K55" s="3" t="s">
-        <v>29</v>
+      <c r="K55" s="3">
+        <v>1.5</v>
       </c>
     </row>
     <row r="56" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B56" s="3" t="s">
         <v>12</v>
@@ -2237,10 +2222,10 @@
         <v>14</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G56" s="3" t="s">
         <v>17</v>
@@ -2248,28 +2233,28 @@
       <c r="H56" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="K56" s="3" t="s">
-        <v>29</v>
+      <c r="K56" s="3">
+        <v>1.5</v>
       </c>
     </row>
     <row r="57" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E57" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="B57" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D57" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>80</v>
-      </c>
       <c r="F57" s="3" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G57" s="3" t="s">
         <v>17</v>
@@ -2277,13 +2262,13 @@
       <c r="H57" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>29</v>
+      <c r="K57" s="3">
+        <v>1.5</v>
       </c>
     </row>
     <row r="58" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B58" s="3" t="s">
         <v>12</v>
@@ -2295,10 +2280,10 @@
         <v>14</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>17</v>
@@ -2306,13 +2291,13 @@
       <c r="H58" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>20</v>
+      <c r="K58" s="3">
+        <v>2.5</v>
       </c>
     </row>
     <row r="59" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B59" s="3" t="s">
         <v>12</v>
@@ -2324,10 +2309,10 @@
         <v>14</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G59" s="3" t="s">
         <v>17</v>
@@ -2335,13 +2320,13 @@
       <c r="H59" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>29</v>
+      <c r="K59" s="3">
+        <v>1.5</v>
       </c>
     </row>
     <row r="60" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B60" s="3" t="s">
         <v>12</v>
@@ -2353,10 +2338,10 @@
         <v>14</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G60" s="3" t="s">
         <v>17</v>
@@ -2370,7 +2355,7 @@
     </row>
     <row r="61" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B61" s="3" t="s">
         <v>12</v>
@@ -2382,13 +2367,13 @@
         <v>14</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H61" s="3"/>
       <c r="K61" s="3">
@@ -2397,7 +2382,7 @@
     </row>
     <row r="62" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B62" s="3" t="s">
         <v>12</v>
@@ -2409,21 +2394,21 @@
         <v>14</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="K62" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
+      </c>
+      <c r="K62" s="3">
+        <v>3.5</v>
       </c>
     </row>
     <row r="63" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B63" s="3" t="s">
         <v>12</v>
@@ -2435,21 +2420,21 @@
         <v>14</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="K63" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
+      </c>
+      <c r="K63" s="3">
+        <v>3.5</v>
       </c>
     </row>
     <row r="64" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B64" s="3" t="s">
         <v>12</v>
@@ -2461,13 +2446,13 @@
         <v>14</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="K64" s="3">
         <v>1</v>
@@ -2475,7 +2460,7 @@
     </row>
     <row r="65" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B65" s="3" t="s">
         <v>12</v>
@@ -2487,13 +2472,13 @@
         <v>14</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="K65" s="3">
         <v>4</v>
@@ -2501,7 +2486,7 @@
     </row>
     <row r="66" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B66" s="3" t="s">
         <v>12</v>
@@ -2513,10 +2498,10 @@
         <v>14</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G66" s="3" t="s">
         <v>17</v>
@@ -2530,7 +2515,7 @@
     </row>
     <row r="67" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B67" s="3" t="s">
         <v>12</v>
@@ -2542,13 +2527,13 @@
         <v>14</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="K67" s="3">
         <v>4</v>
@@ -2556,7 +2541,7 @@
     </row>
     <row r="68" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B68" s="3" t="s">
         <v>12</v>
@@ -2568,16 +2553,16 @@
         <v>14</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="J68" s="3" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="K68" s="3">
         <v>5</v>
@@ -2585,7 +2570,7 @@
     </row>
     <row r="69" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B69" s="3" t="s">
         <v>12</v>
@@ -2597,10 +2582,10 @@
         <v>14</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G69" s="3" t="s">
         <v>17</v>
@@ -2609,12 +2594,12 @@
         <v>18</v>
       </c>
       <c r="K69" s="3" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="70" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B70" s="3" t="s">
         <v>12</v>
@@ -2626,21 +2611,21 @@
         <v>14</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="K70" s="3" t="s">
-        <v>94</v>
+        <v>34</v>
+      </c>
+      <c r="K70" s="3">
+        <v>4.5</v>
       </c>
     </row>
     <row r="71" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B71" s="3" t="s">
         <v>12</v>
@@ -2652,10 +2637,10 @@
         <v>14</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G71" s="3" t="s">
         <v>17</v>
@@ -2663,13 +2648,13 @@
       <c r="H71" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="K71" s="3" t="s">
-        <v>32</v>
+      <c r="K71" s="3">
+        <v>3.5</v>
       </c>
     </row>
     <row r="72" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B72" s="3" t="s">
         <v>12</v>
@@ -2681,10 +2666,10 @@
         <v>14</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G72" s="3" t="s">
         <v>17</v>
@@ -2692,13 +2677,13 @@
       <c r="H72" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>29</v>
+      <c r="K72" s="3">
+        <v>1.5</v>
       </c>
     </row>
     <row r="73" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B73" s="3" t="s">
         <v>12</v>
@@ -2710,10 +2695,10 @@
         <v>14</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G73" s="3" t="s">
         <v>17</v>
@@ -2727,7 +2712,7 @@
     </row>
     <row r="74" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B74" s="3" t="s">
         <v>12</v>
@@ -2739,10 +2724,10 @@
         <v>14</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G74" s="3" t="s">
         <v>17</v>
@@ -2756,7 +2741,7 @@
     </row>
     <row r="75" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B75" s="3" t="s">
         <v>12</v>
@@ -2768,10 +2753,10 @@
         <v>14</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G75" s="3" t="s">
         <v>17</v>
